--- a/data/pca/factorExposure/factorExposure_2019-02-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1179828844107682</v>
+        <v>-0.07197578861974241</v>
       </c>
       <c r="C2">
-        <v>0.01773271073057139</v>
+        <v>-0.03120341086356927</v>
       </c>
       <c r="D2">
-        <v>0.05001665833295183</v>
+        <v>-0.0228556150112562</v>
       </c>
       <c r="E2">
-        <v>-0.1289848955791606</v>
+        <v>-0.04309650307138429</v>
       </c>
       <c r="F2">
-        <v>-0.05032950855531015</v>
+        <v>-0.1416781843469002</v>
       </c>
       <c r="G2">
-        <v>0.1046152292162667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1047701272275055</v>
+      </c>
+      <c r="H2">
+        <v>-0.05494190199510819</v>
+      </c>
+      <c r="I2">
+        <v>0.05483637254788574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.206490625131754</v>
+        <v>-0.1607688560283356</v>
       </c>
       <c r="C3">
-        <v>0.1605355579050552</v>
+        <v>-0.1049840882464921</v>
       </c>
       <c r="D3">
-        <v>-0.03800397166940665</v>
+        <v>-0.0001817392694244164</v>
       </c>
       <c r="E3">
-        <v>-0.3286892683588486</v>
+        <v>0.003877591949051318</v>
       </c>
       <c r="F3">
-        <v>0.05827690385792919</v>
+        <v>-0.375175456610512</v>
       </c>
       <c r="G3">
-        <v>0.07156582052018039</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.08285002712517285</v>
+      </c>
+      <c r="H3">
+        <v>-0.2718661487029169</v>
+      </c>
+      <c r="I3">
+        <v>0.2821373910225886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09667671205942024</v>
+        <v>-0.07192096480802583</v>
       </c>
       <c r="C4">
-        <v>0.05058047386741572</v>
+        <v>-0.0486988976620403</v>
       </c>
       <c r="D4">
-        <v>0.02582690342447436</v>
+        <v>0.01261125606204609</v>
       </c>
       <c r="E4">
-        <v>-0.07078971153451265</v>
+        <v>-0.04087695040376377</v>
       </c>
       <c r="F4">
-        <v>0.002978994609316684</v>
+        <v>-0.08136824664670232</v>
       </c>
       <c r="G4">
-        <v>0.04247827850101681</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0438535889474293</v>
+      </c>
+      <c r="H4">
+        <v>-0.02334075103272332</v>
+      </c>
+      <c r="I4">
+        <v>0.0419541184533352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01809753406745724</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01370519149249443</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005226208847813885</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005606177342044483</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.004255235734898488</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02079357984938146</v>
+      </c>
+      <c r="H6">
+        <v>-0.0001091439856902137</v>
+      </c>
+      <c r="I6">
+        <v>-0.01300103812858522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03912574361827441</v>
+        <v>-0.03378421391250429</v>
       </c>
       <c r="C7">
-        <v>0.01424178045123589</v>
+        <v>-0.01700984620590692</v>
       </c>
       <c r="D7">
-        <v>0.03142685581812765</v>
+        <v>0.03556979685772711</v>
       </c>
       <c r="E7">
-        <v>-0.07645769870673816</v>
+        <v>-0.02848827637176595</v>
       </c>
       <c r="F7">
-        <v>0.0381807800087787</v>
+        <v>-0.05476245871692349</v>
       </c>
       <c r="G7">
-        <v>-0.0402891038819829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006930050541650586</v>
+      </c>
+      <c r="H7">
+        <v>-0.0446096135596742</v>
+      </c>
+      <c r="I7">
+        <v>0.01531098528530162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04450618151930025</v>
+        <v>-0.02895192157787433</v>
       </c>
       <c r="C8">
-        <v>0.05705982157186062</v>
+        <v>-0.05030637072629442</v>
       </c>
       <c r="D8">
-        <v>0.002409566470680746</v>
+        <v>0.01081747160592786</v>
       </c>
       <c r="E8">
-        <v>-0.07081154632874773</v>
+        <v>-0.02061109917793301</v>
       </c>
       <c r="F8">
-        <v>0.01031878874393732</v>
+        <v>-0.07204385934122097</v>
       </c>
       <c r="G8">
-        <v>0.01334300829769196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.01957430133521239</v>
+      </c>
+      <c r="H8">
+        <v>-0.04016377710438133</v>
+      </c>
+      <c r="I8">
+        <v>0.04953654583893517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08403334855562665</v>
+        <v>-0.06044563745832439</v>
       </c>
       <c r="C9">
-        <v>0.04416504721860986</v>
+        <v>-0.0430610498274487</v>
       </c>
       <c r="D9">
-        <v>0.03490470760205033</v>
+        <v>0.01658168275273739</v>
       </c>
       <c r="E9">
-        <v>-0.05687333522162513</v>
+        <v>-0.03553747078643228</v>
       </c>
       <c r="F9">
-        <v>0.01809172347142441</v>
+        <v>-0.08053307313043823</v>
       </c>
       <c r="G9">
-        <v>0.04817338868862078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04207280437438943</v>
+      </c>
+      <c r="H9">
+        <v>-0.0213141439464677</v>
+      </c>
+      <c r="I9">
+        <v>0.02107991064147679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01960621762565051</v>
+        <v>-0.03459055402720655</v>
       </c>
       <c r="C10">
-        <v>-0.1600906907355495</v>
+        <v>0.1543256519849924</v>
       </c>
       <c r="D10">
-        <v>-0.0302319147422064</v>
+        <v>-0.003524788438364785</v>
       </c>
       <c r="E10">
-        <v>-0.07531554999183214</v>
+        <v>0.0402631259046004</v>
       </c>
       <c r="F10">
-        <v>-0.01789763233924662</v>
+        <v>-0.06895379805463785</v>
       </c>
       <c r="G10">
-        <v>0.003740246194833771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02510546241083567</v>
+      </c>
+      <c r="H10">
+        <v>0.0007386407051274024</v>
+      </c>
+      <c r="I10">
+        <v>0.1003635347838444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05932983820225472</v>
+        <v>-0.04832052102914601</v>
       </c>
       <c r="C11">
-        <v>0.01641762479272578</v>
+        <v>-0.03151463388846664</v>
       </c>
       <c r="D11">
-        <v>-0.005731622041158771</v>
+        <v>-0.007183102107401873</v>
       </c>
       <c r="E11">
-        <v>-0.04450686680944777</v>
+        <v>-0.009972989068087294</v>
       </c>
       <c r="F11">
-        <v>-0.01074124845068755</v>
+        <v>-0.03987504745734823</v>
       </c>
       <c r="G11">
-        <v>-0.003617840444890055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006974998384186636</v>
+      </c>
+      <c r="H11">
+        <v>0.0008533968382443111</v>
+      </c>
+      <c r="I11">
+        <v>-0.001327175565560909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04502890168066857</v>
+        <v>-0.04476345588130302</v>
       </c>
       <c r="C12">
-        <v>0.02040576060151524</v>
+        <v>-0.02859204548386834</v>
       </c>
       <c r="D12">
-        <v>-0.003705679030229221</v>
+        <v>0.004129130576932296</v>
       </c>
       <c r="E12">
-        <v>-0.02759208236769957</v>
+        <v>-0.0114077956919157</v>
       </c>
       <c r="F12">
-        <v>0.009051886338431887</v>
+        <v>-0.01431439666266186</v>
       </c>
       <c r="G12">
-        <v>-0.0003925829378935315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.000988116949856869</v>
+      </c>
+      <c r="H12">
+        <v>-0.003815235715019093</v>
+      </c>
+      <c r="I12">
+        <v>-0.0007198975851988609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.0621242801524971</v>
+        <v>-0.04069476968408067</v>
       </c>
       <c r="C13">
-        <v>0.03076280808040207</v>
+        <v>-0.02609937851647273</v>
       </c>
       <c r="D13">
-        <v>-0.00568368628045213</v>
+        <v>-0.01603570360989132</v>
       </c>
       <c r="E13">
-        <v>-0.1099552127255896</v>
+        <v>-0.009149608354181007</v>
       </c>
       <c r="F13">
-        <v>-0.007937046431642364</v>
+        <v>-0.1049288429850897</v>
       </c>
       <c r="G13">
-        <v>0.01429269084250715</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02279160634367343</v>
+      </c>
+      <c r="H13">
+        <v>-0.04186215364033108</v>
+      </c>
+      <c r="I13">
+        <v>0.02836484909422772</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03481583822166847</v>
+        <v>-0.02827006315615996</v>
       </c>
       <c r="C14">
-        <v>0.02306863797654452</v>
+        <v>-0.01954246001245546</v>
       </c>
       <c r="D14">
-        <v>0.02566031615725539</v>
+        <v>0.004770259316989706</v>
       </c>
       <c r="E14">
-        <v>-0.0316182834362308</v>
+        <v>-0.02693185197182488</v>
       </c>
       <c r="F14">
-        <v>-0.02179896766395447</v>
+        <v>-0.04096594999480518</v>
       </c>
       <c r="G14">
-        <v>-0.01131502625771845</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02340406050440454</v>
+      </c>
+      <c r="H14">
+        <v>-0.05132293582087368</v>
+      </c>
+      <c r="I14">
+        <v>0.01028264574096784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04739254548461028</v>
+        <v>-0.04275519203392499</v>
       </c>
       <c r="C16">
-        <v>0.02764755672679732</v>
+        <v>-0.0372858923158905</v>
       </c>
       <c r="D16">
-        <v>-0.00700428385877917</v>
+        <v>-0.001966963177929341</v>
       </c>
       <c r="E16">
-        <v>-0.03482293747211779</v>
+        <v>-0.008090876033560882</v>
       </c>
       <c r="F16">
-        <v>0.001952095237721431</v>
+        <v>-0.0356759133779353</v>
       </c>
       <c r="G16">
-        <v>-0.008084325904138309</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.004788704317320723</v>
+      </c>
+      <c r="H16">
+        <v>-0.006239448186303299</v>
+      </c>
+      <c r="I16">
+        <v>0.0001921352910538842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.0541348143772022</v>
+        <v>-0.04750858896649644</v>
       </c>
       <c r="C19">
-        <v>0.04780946458781362</v>
+        <v>-0.04445720846918697</v>
       </c>
       <c r="D19">
-        <v>-0.001284243694038824</v>
+        <v>-0.003215742675361464</v>
       </c>
       <c r="E19">
-        <v>-0.08136543553645934</v>
+        <v>-0.02313568827653125</v>
       </c>
       <c r="F19">
-        <v>-0.001932606047628961</v>
+        <v>-0.08469095800782808</v>
       </c>
       <c r="G19">
-        <v>-0.02628860695037223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.005355977831234757</v>
+      </c>
+      <c r="H19">
+        <v>-0.07625650152692448</v>
+      </c>
+      <c r="I19">
+        <v>0.04439855329444564</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03578880941507902</v>
+        <v>-0.0172288725577482</v>
       </c>
       <c r="C20">
-        <v>0.04386856692391247</v>
+        <v>-0.02887302096889392</v>
       </c>
       <c r="D20">
-        <v>0.01385308038329263</v>
+        <v>0.00531637300987485</v>
       </c>
       <c r="E20">
-        <v>-0.06757850153028817</v>
+        <v>-0.02141347007265016</v>
       </c>
       <c r="F20">
-        <v>0.005815054359048877</v>
+        <v>-0.06850293966028516</v>
       </c>
       <c r="G20">
-        <v>-0.01241668562218158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01141109538047048</v>
+      </c>
+      <c r="H20">
+        <v>-0.06776652334624088</v>
+      </c>
+      <c r="I20">
+        <v>0.04420652579878317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03526680786367776</v>
+        <v>-0.02766232011658431</v>
       </c>
       <c r="C21">
-        <v>0.03243392001532665</v>
+        <v>-0.02999217319957106</v>
       </c>
       <c r="D21">
-        <v>0.002839424140396508</v>
+        <v>0.01172146108503628</v>
       </c>
       <c r="E21">
-        <v>-0.1094085113451636</v>
+        <v>-0.007767980324798684</v>
       </c>
       <c r="F21">
-        <v>-0.0285855129746002</v>
+        <v>-0.080494616221163</v>
       </c>
       <c r="G21">
-        <v>0.0432703031494845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03861357380352826</v>
+      </c>
+      <c r="H21">
+        <v>-0.02606463001292702</v>
+      </c>
+      <c r="I21">
+        <v>-0.01009686252988275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05099795081338734</v>
+        <v>-0.04109080764840644</v>
       </c>
       <c r="C24">
-        <v>0.02444324572959656</v>
+        <v>-0.03107562027834725</v>
       </c>
       <c r="D24">
-        <v>-0.0041940714105588</v>
+        <v>-0.001011660605135893</v>
       </c>
       <c r="E24">
-        <v>-0.04428495473368162</v>
+        <v>-0.01133162916567828</v>
       </c>
       <c r="F24">
-        <v>0.009592097471084216</v>
+        <v>-0.0375948511755607</v>
       </c>
       <c r="G24">
-        <v>-0.0006502762792037168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.00161457040768158</v>
+      </c>
+      <c r="H24">
+        <v>-0.00225152172432898</v>
+      </c>
+      <c r="I24">
+        <v>9.108793293955589e-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05168957031022396</v>
+        <v>-0.04585424447220069</v>
       </c>
       <c r="C25">
-        <v>0.01561578588301829</v>
+        <v>-0.02784951774833363</v>
       </c>
       <c r="D25">
-        <v>-0.003581927346189104</v>
+        <v>-0.002149134542009463</v>
       </c>
       <c r="E25">
-        <v>-0.04233985299802275</v>
+        <v>-0.009764954389028068</v>
       </c>
       <c r="F25">
-        <v>-0.002091588733317097</v>
+        <v>-0.04274376763771762</v>
       </c>
       <c r="G25">
-        <v>-0.000169031313698347</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.002078272860720649</v>
+      </c>
+      <c r="H25">
+        <v>0.001931204648443885</v>
+      </c>
+      <c r="I25">
+        <v>-0.004387407234490848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.0220900141596813</v>
+        <v>-0.01681008699926043</v>
       </c>
       <c r="C26">
-        <v>0.03169040196491513</v>
+        <v>-0.02581652278160479</v>
       </c>
       <c r="D26">
-        <v>0.005960581664905688</v>
+        <v>-0.005114368194985177</v>
       </c>
       <c r="E26">
-        <v>-0.03614318709871868</v>
+        <v>-0.002962161801608101</v>
       </c>
       <c r="F26">
-        <v>-0.03074228173467509</v>
+        <v>-0.04646982460397378</v>
       </c>
       <c r="G26">
-        <v>-0.00576934295935507</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02109399676371143</v>
+      </c>
+      <c r="H26">
+        <v>-0.03298003831526246</v>
+      </c>
+      <c r="I26">
+        <v>0.00135439112041252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1156718524977004</v>
+        <v>-0.07282950412366741</v>
       </c>
       <c r="C27">
-        <v>0.03642440549502658</v>
+        <v>-0.03107329022264265</v>
       </c>
       <c r="D27">
-        <v>0.01407304952042647</v>
+        <v>0.00402583214649953</v>
       </c>
       <c r="E27">
-        <v>-0.0910901945483031</v>
+        <v>-0.03484987791588752</v>
       </c>
       <c r="F27">
-        <v>0.00993094297239298</v>
+        <v>-0.06851594273761981</v>
       </c>
       <c r="G27">
-        <v>0.02031122502549374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02013435231014446</v>
+      </c>
+      <c r="H27">
+        <v>-0.01039224422890308</v>
+      </c>
+      <c r="I27">
+        <v>0.03161715739930011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.0168557332379189</v>
+        <v>-0.05224457344016669</v>
       </c>
       <c r="C28">
-        <v>-0.2408744448642952</v>
+        <v>0.235207718624693</v>
       </c>
       <c r="D28">
-        <v>-0.03533229613361631</v>
+        <v>0.005183589846650392</v>
       </c>
       <c r="E28">
-        <v>-0.05476333821225061</v>
+        <v>0.06003827506243868</v>
       </c>
       <c r="F28">
-        <v>-0.02617615150681872</v>
+        <v>-0.05828998897468839</v>
       </c>
       <c r="G28">
-        <v>0.02526573271816413</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02662686423118723</v>
+      </c>
+      <c r="H28">
+        <v>0.00706253837320127</v>
+      </c>
+      <c r="I28">
+        <v>0.1542487081616331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02516791783753836</v>
+        <v>-0.02369154112144987</v>
       </c>
       <c r="C29">
-        <v>0.02447782803126749</v>
+        <v>-0.01764062876418864</v>
       </c>
       <c r="D29">
-        <v>0.02918509317558894</v>
+        <v>0.008253900034114903</v>
       </c>
       <c r="E29">
-        <v>-0.03343089998379504</v>
+        <v>-0.02774682649983381</v>
       </c>
       <c r="F29">
-        <v>-0.01758841732793983</v>
+        <v>-0.03671823932865734</v>
       </c>
       <c r="G29">
-        <v>0.001850390412647223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02737242412229688</v>
+      </c>
+      <c r="H29">
+        <v>-0.04990122753826536</v>
+      </c>
+      <c r="I29">
+        <v>0.001684052542480829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1146749415632323</v>
+        <v>-0.08786104880583179</v>
       </c>
       <c r="C30">
-        <v>0.02917185207400052</v>
+        <v>-0.04979986358278139</v>
       </c>
       <c r="D30">
-        <v>0.03199993844912506</v>
+        <v>-0.0389945104054007</v>
       </c>
       <c r="E30">
-        <v>-0.1122791708308509</v>
+        <v>-0.03464180127769387</v>
       </c>
       <c r="F30">
-        <v>-0.001824821667759168</v>
+        <v>-0.104884581450898</v>
       </c>
       <c r="G30">
-        <v>-0.02065423998848863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01614316429878721</v>
+      </c>
+      <c r="H30">
+        <v>-0.01847559402131481</v>
+      </c>
+      <c r="I30">
+        <v>-0.002485045271159902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06970597093830043</v>
+        <v>-0.0620576720470825</v>
       </c>
       <c r="C31">
-        <v>0.01458254104885916</v>
+        <v>-0.02247124401722013</v>
       </c>
       <c r="D31">
-        <v>0.01449293900999243</v>
+        <v>-0.01162929763927653</v>
       </c>
       <c r="E31">
-        <v>0.01888776234276975</v>
+        <v>-0.02491638102392065</v>
       </c>
       <c r="F31">
-        <v>-0.04833871591023454</v>
+        <v>-0.001993407872061436</v>
       </c>
       <c r="G31">
-        <v>-0.03005191879070046</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03904690234633534</v>
+      </c>
+      <c r="H31">
+        <v>-0.03269469785526974</v>
+      </c>
+      <c r="I31">
+        <v>0.01517764234653683</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06355889468426883</v>
+        <v>-0.04205760228235735</v>
       </c>
       <c r="C32">
-        <v>0.04446980959123804</v>
+        <v>-0.052632474867731</v>
       </c>
       <c r="D32">
-        <v>0.01411422832842268</v>
+        <v>0.01343070045527808</v>
       </c>
       <c r="E32">
-        <v>-0.1076124922838763</v>
+        <v>-0.03345018980102275</v>
       </c>
       <c r="F32">
-        <v>0.0003325275933472184</v>
+        <v>-0.08793896805635758</v>
       </c>
       <c r="G32">
-        <v>-0.01567585499209985</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01177308752444465</v>
+      </c>
+      <c r="H32">
+        <v>-0.03379928606292287</v>
+      </c>
+      <c r="I32">
+        <v>0.02978188106541594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06920983015521751</v>
+        <v>-0.05551979142389721</v>
       </c>
       <c r="C33">
-        <v>0.04887572099667998</v>
+        <v>-0.05155185340768462</v>
       </c>
       <c r="D33">
-        <v>0.01277117170141708</v>
+        <v>-0.02071618217894858</v>
       </c>
       <c r="E33">
-        <v>-0.07553921546021959</v>
+        <v>-0.0156059757545708</v>
       </c>
       <c r="F33">
-        <v>-0.03787997775850243</v>
+        <v>-0.07756546473936679</v>
       </c>
       <c r="G33">
-        <v>0.02127477049199436</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03329922041274069</v>
+      </c>
+      <c r="H33">
+        <v>-0.03780051804973499</v>
+      </c>
+      <c r="I33">
+        <v>0.00425161392226365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04860523345723079</v>
+        <v>-0.04337119810074262</v>
       </c>
       <c r="C34">
-        <v>0.02363951211512255</v>
+        <v>-0.03533740131836448</v>
       </c>
       <c r="D34">
-        <v>0.002459810605245436</v>
+        <v>0.003225587262287881</v>
       </c>
       <c r="E34">
-        <v>-0.02858631124142545</v>
+        <v>-0.01861403423481282</v>
       </c>
       <c r="F34">
-        <v>0.004906921713177358</v>
+        <v>-0.03109233046973574</v>
       </c>
       <c r="G34">
-        <v>-0.009456449369226592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001749393047084063</v>
+      </c>
+      <c r="H34">
+        <v>-0.009383708199574386</v>
+      </c>
+      <c r="I34">
+        <v>0.0003207573405624311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01577562243563549</v>
+        <v>-0.01591958454633502</v>
       </c>
       <c r="C36">
-        <v>0.001951187511488316</v>
+        <v>-0.003115829544687476</v>
       </c>
       <c r="D36">
-        <v>0.008806075956839625</v>
+        <v>0.004403565092482507</v>
       </c>
       <c r="E36">
-        <v>-0.02266737830717295</v>
+        <v>-0.01044531882169531</v>
       </c>
       <c r="F36">
-        <v>-0.01735192867365105</v>
+        <v>-0.02672163965881162</v>
       </c>
       <c r="G36">
-        <v>-0.007300439765237471</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02360083020371654</v>
+      </c>
+      <c r="H36">
+        <v>-0.0298463760373044</v>
+      </c>
+      <c r="I36">
+        <v>-0.005374206443160821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.04927251196798532</v>
+        <v>-0.03423975822195421</v>
       </c>
       <c r="C38">
-        <v>0.01910406558007368</v>
+        <v>-0.01507482251391333</v>
       </c>
       <c r="D38">
-        <v>0.02299042196875757</v>
+        <v>0.002881974649358999</v>
       </c>
       <c r="E38">
-        <v>-0.02358163107006681</v>
+        <v>-0.01359441562397803</v>
       </c>
       <c r="F38">
-        <v>0.02268501179882722</v>
+        <v>-0.04770243375433457</v>
       </c>
       <c r="G38">
-        <v>0.01960817488976054</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02605599844279936</v>
+      </c>
+      <c r="H38">
+        <v>-0.01571091353423488</v>
+      </c>
+      <c r="I38">
+        <v>-0.01241596534039903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07494309415394525</v>
+        <v>-0.05500194098548186</v>
       </c>
       <c r="C39">
-        <v>0.02153494287537381</v>
+        <v>-0.04434244369018043</v>
       </c>
       <c r="D39">
-        <v>0.002808802868551823</v>
+        <v>-0.006389009498852051</v>
       </c>
       <c r="E39">
-        <v>-0.04082818837351992</v>
+        <v>-0.0185590186577955</v>
       </c>
       <c r="F39">
-        <v>-0.01046825395594128</v>
+        <v>-0.05574225538632449</v>
       </c>
       <c r="G39">
-        <v>0.0108844195858574</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01830004622393629</v>
+      </c>
+      <c r="H39">
+        <v>-0.001803479197036703</v>
+      </c>
+      <c r="I39">
+        <v>-0.02090449746177255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07579113885534661</v>
+        <v>-0.05469768975949141</v>
       </c>
       <c r="C40">
-        <v>0.04767277981233724</v>
+        <v>-0.04151343560514447</v>
       </c>
       <c r="D40">
-        <v>0.009074906844209071</v>
+        <v>-0.02193676328110833</v>
       </c>
       <c r="E40">
-        <v>-0.1057146800104557</v>
+        <v>-0.02499376970808184</v>
       </c>
       <c r="F40">
-        <v>-0.0001876170831252588</v>
+        <v>-0.09421111280540441</v>
       </c>
       <c r="G40">
-        <v>0.03630037985703099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02334384415857525</v>
+      </c>
+      <c r="H40">
+        <v>-0.04864019555922922</v>
+      </c>
+      <c r="I40">
+        <v>0.04963883824457097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.002825941240513911</v>
+        <v>-0.003882519987099211</v>
       </c>
       <c r="C41">
-        <v>0.02271060450271405</v>
+        <v>-0.01228267114525282</v>
       </c>
       <c r="D41">
-        <v>0.02798416251597897</v>
+        <v>-0.0004911894608509008</v>
       </c>
       <c r="E41">
-        <v>-0.0123261695797833</v>
+        <v>-0.01131902627430408</v>
       </c>
       <c r="F41">
-        <v>-0.0306123794790954</v>
+        <v>-0.01366646117455119</v>
       </c>
       <c r="G41">
-        <v>0.00818242940295523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03433994847158054</v>
+      </c>
+      <c r="H41">
+        <v>-0.03115681854016266</v>
+      </c>
+      <c r="I41">
+        <v>0.02619391051838906</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.142445788148313</v>
+        <v>-0.22165351277299</v>
       </c>
       <c r="C42">
-        <v>0.220519503782349</v>
+        <v>-0.2804975672744155</v>
       </c>
       <c r="D42">
-        <v>-0.9244294585155257</v>
+        <v>-0.06692456585347642</v>
       </c>
       <c r="E42">
-        <v>0.1055764273863296</v>
+        <v>0.9008592945928894</v>
       </c>
       <c r="F42">
-        <v>-0.08794567412400127</v>
+        <v>0.1624749553786119</v>
       </c>
       <c r="G42">
-        <v>-0.1097327379235948</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.005428330976793232</v>
+      </c>
+      <c r="H42">
+        <v>-0.002472050899125194</v>
+      </c>
+      <c r="I42">
+        <v>0.05635571068732444</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005381548779384787</v>
+        <v>-0.006876977562999211</v>
       </c>
       <c r="C43">
-        <v>0.02308606328732477</v>
+        <v>-0.01442218365940103</v>
       </c>
       <c r="D43">
-        <v>0.01627562825984022</v>
+        <v>-0.003040341459530199</v>
       </c>
       <c r="E43">
-        <v>-0.03469080489705061</v>
+        <v>-0.01129941614298296</v>
       </c>
       <c r="F43">
-        <v>-0.0188045348766436</v>
+        <v>-0.02842094361430381</v>
       </c>
       <c r="G43">
-        <v>-0.008950397174181411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01990379721414749</v>
+      </c>
+      <c r="H43">
+        <v>-0.02948175080719143</v>
+      </c>
+      <c r="I43">
+        <v>0.01830836653424975</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03917073178476968</v>
+        <v>-0.02748175989837947</v>
       </c>
       <c r="C44">
-        <v>0.05453321484770513</v>
+        <v>-0.0426185129099854</v>
       </c>
       <c r="D44">
-        <v>0.01696550001191682</v>
+        <v>0.0002399767825164689</v>
       </c>
       <c r="E44">
-        <v>-0.1239888005488476</v>
+        <v>-0.01101658671131312</v>
       </c>
       <c r="F44">
-        <v>-0.07340499770191972</v>
+        <v>-0.1209896222479803</v>
       </c>
       <c r="G44">
-        <v>0.04331272005763906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06077195222920253</v>
+      </c>
+      <c r="H44">
+        <v>-0.1005786273672565</v>
+      </c>
+      <c r="I44">
+        <v>0.03677879293520075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02830531994439454</v>
+        <v>-0.02437618022128432</v>
       </c>
       <c r="C46">
-        <v>0.02810060633305975</v>
+        <v>-0.03395835258501654</v>
       </c>
       <c r="D46">
-        <v>0.02937374340463366</v>
+        <v>-0.003891981222064983</v>
       </c>
       <c r="E46">
-        <v>-0.03317982308419117</v>
+        <v>-0.03219564595449626</v>
       </c>
       <c r="F46">
-        <v>-0.03133301447995059</v>
+        <v>-0.04974835779939582</v>
       </c>
       <c r="G46">
-        <v>0.00464391620544168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02257969161247335</v>
+      </c>
+      <c r="H46">
+        <v>-0.05466037530008582</v>
+      </c>
+      <c r="I46">
+        <v>0.006391085491577119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09106154069867343</v>
+        <v>-0.08969022437735025</v>
       </c>
       <c r="C47">
-        <v>0.01315831681163161</v>
+        <v>-0.01827530831714749</v>
       </c>
       <c r="D47">
-        <v>0.01740585637428514</v>
+        <v>-0.006140921626636697</v>
       </c>
       <c r="E47">
-        <v>0.01929945458138856</v>
+        <v>-0.02744963418782128</v>
       </c>
       <c r="F47">
-        <v>-0.02385474195357051</v>
+        <v>0.009663269076646443</v>
       </c>
       <c r="G47">
-        <v>-0.008568111274940929</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03825200744264355</v>
+      </c>
+      <c r="H47">
+        <v>-0.05484504811596491</v>
+      </c>
+      <c r="I47">
+        <v>0.02712104228926253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01981128111091703</v>
+        <v>-0.01990677815611678</v>
       </c>
       <c r="C48">
-        <v>0.02503520493778198</v>
+        <v>-0.02017088483438308</v>
       </c>
       <c r="D48">
-        <v>0.01561698670573326</v>
+        <v>0.0006864562363343863</v>
       </c>
       <c r="E48">
-        <v>-0.02922516575889923</v>
+        <v>-0.01469064865778127</v>
       </c>
       <c r="F48">
-        <v>-0.008916467119137834</v>
+        <v>-0.02779909092357067</v>
       </c>
       <c r="G48">
-        <v>0.0002519654248056212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0160757439482234</v>
+      </c>
+      <c r="H48">
+        <v>-0.02066350568981887</v>
+      </c>
+      <c r="I48">
+        <v>0.01431818357554306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09394566799985751</v>
+        <v>-0.08861909479083029</v>
       </c>
       <c r="C50">
-        <v>0.03373300688168109</v>
+        <v>-0.03584963963902869</v>
       </c>
       <c r="D50">
-        <v>0.02569290223690892</v>
+        <v>0.008679435659384624</v>
       </c>
       <c r="E50">
-        <v>0.01530303748242296</v>
+        <v>-0.02872795501167109</v>
       </c>
       <c r="F50">
-        <v>-0.03660207319515225</v>
+        <v>0.003799758320924307</v>
       </c>
       <c r="G50">
-        <v>-0.03392676476907559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.001293533895707351</v>
+      </c>
+      <c r="H50">
+        <v>-0.0363940319772257</v>
+      </c>
+      <c r="I50">
+        <v>-0.001360048976565681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0551750957128628</v>
+        <v>-0.03951720887540439</v>
       </c>
       <c r="C51">
-        <v>-0.01828996607513844</v>
+        <v>0.007225381414067063</v>
       </c>
       <c r="D51">
-        <v>-0.0003471141138462512</v>
+        <v>-0.01234064096173713</v>
       </c>
       <c r="E51">
-        <v>-0.08195635296541146</v>
+        <v>-0.008790439160355478</v>
       </c>
       <c r="F51">
-        <v>-0.06964483727432881</v>
+        <v>-0.09754925477749295</v>
       </c>
       <c r="G51">
-        <v>0.006548534569809829</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05405959101785485</v>
+      </c>
+      <c r="H51">
+        <v>-0.05134228531044533</v>
+      </c>
+      <c r="I51">
+        <v>0.02720086713173599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1425149799708882</v>
+        <v>-0.1254465727328003</v>
       </c>
       <c r="C53">
-        <v>0.01681719205007227</v>
+        <v>-0.03679797310073016</v>
       </c>
       <c r="D53">
-        <v>0.04904179362476949</v>
+        <v>-0.007686494039450416</v>
       </c>
       <c r="E53">
-        <v>0.04643022019957135</v>
+        <v>-0.05677414047503362</v>
       </c>
       <c r="F53">
-        <v>-0.0252271438047422</v>
+        <v>0.04262612570621652</v>
       </c>
       <c r="G53">
-        <v>-0.02287490367619268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0223127580728417</v>
+      </c>
+      <c r="H53">
+        <v>0.003529511704842179</v>
+      </c>
+      <c r="I53">
+        <v>0.04707424727365479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02657429022877172</v>
+        <v>-0.02522776564786431</v>
       </c>
       <c r="C54">
-        <v>0.007121737672593356</v>
+        <v>-0.00179029150072223</v>
       </c>
       <c r="D54">
-        <v>0.02719540162293659</v>
+        <v>0.00464665296365304</v>
       </c>
       <c r="E54">
-        <v>-0.03458829197699109</v>
+        <v>-0.02591606860123754</v>
       </c>
       <c r="F54">
-        <v>-0.03908814359212226</v>
+        <v>-0.03577416098016815</v>
       </c>
       <c r="G54">
-        <v>0.02590863777278964</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05000960838792944</v>
+      </c>
+      <c r="H54">
+        <v>-0.04540235272086442</v>
+      </c>
+      <c r="I54">
+        <v>0.02817835801472333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1051546845284069</v>
+        <v>-0.09924585349768897</v>
       </c>
       <c r="C55">
-        <v>0.004336109787842182</v>
+        <v>-0.02965763984437864</v>
       </c>
       <c r="D55">
-        <v>0.03511476269127296</v>
+        <v>0.0104306756165634</v>
       </c>
       <c r="E55">
-        <v>0.01498504728992819</v>
+        <v>-0.03738031667976161</v>
       </c>
       <c r="F55">
-        <v>0.03586241796104069</v>
+        <v>0.0291354550731659</v>
       </c>
       <c r="G55">
-        <v>-0.02434420416225627</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.009816532617480387</v>
+      </c>
+      <c r="H55">
+        <v>-0.009039959480919086</v>
+      </c>
+      <c r="I55">
+        <v>0.0238529844619662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1783312859210364</v>
+        <v>-0.1666665019164221</v>
       </c>
       <c r="C56">
-        <v>-0.01376448761160126</v>
+        <v>-0.01527790043606891</v>
       </c>
       <c r="D56">
-        <v>0.08566623542847802</v>
+        <v>-0.0001636732957207244</v>
       </c>
       <c r="E56">
-        <v>0.09624796910281556</v>
+        <v>-0.08568737700053505</v>
       </c>
       <c r="F56">
-        <v>0.05011622572214124</v>
+        <v>0.08684448201472157</v>
       </c>
       <c r="G56">
-        <v>-0.06194389476652509</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02562246937914936</v>
+      </c>
+      <c r="H56">
+        <v>0.04201128637135257</v>
+      </c>
+      <c r="I56">
+        <v>0.04675528599550337</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08773380758094658</v>
+        <v>-0.06504731981487802</v>
       </c>
       <c r="C57">
-        <v>0.03235439901571959</v>
+        <v>-0.03299302545792848</v>
       </c>
       <c r="D57">
-        <v>0.02865991918924095</v>
+        <v>-0.01904030534562844</v>
       </c>
       <c r="E57">
-        <v>-0.04439357413367596</v>
+        <v>-0.008165497480093965</v>
       </c>
       <c r="F57">
-        <v>-0.05243612736291067</v>
+        <v>-0.0673779562111182</v>
       </c>
       <c r="G57">
-        <v>-0.007167315982713205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02571628431795619</v>
+      </c>
+      <c r="H57">
+        <v>-0.03388837547202475</v>
+      </c>
+      <c r="I57">
+        <v>0.002193529007478376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1987874977365488</v>
+        <v>-0.2082295795095679</v>
       </c>
       <c r="C58">
-        <v>0.03711963220373097</v>
+        <v>-0.08499927887457666</v>
       </c>
       <c r="D58">
-        <v>-0.0007085325072920892</v>
+        <v>-0.09459630161120476</v>
       </c>
       <c r="E58">
-        <v>-0.1317099615757331</v>
+        <v>0.008037659265001395</v>
       </c>
       <c r="F58">
-        <v>0.01201569676430796</v>
+        <v>-0.2567325255410267</v>
       </c>
       <c r="G58">
-        <v>-0.08809893413281518</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.182165192474654</v>
+      </c>
+      <c r="H58">
+        <v>-0.3712374707205892</v>
+      </c>
+      <c r="I58">
+        <v>-0.352407296384314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02154222182102944</v>
+        <v>-0.05160983540619757</v>
       </c>
       <c r="C59">
-        <v>-0.1959615856875172</v>
+        <v>0.1949727083435003</v>
       </c>
       <c r="D59">
-        <v>-0.006993244507384184</v>
+        <v>-0.01175784572640418</v>
       </c>
       <c r="E59">
-        <v>-0.06413285386675099</v>
+        <v>0.02201595422356081</v>
       </c>
       <c r="F59">
-        <v>-0.009126102073794785</v>
+        <v>-0.06935446836026166</v>
       </c>
       <c r="G59">
-        <v>0.01078633253518592</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005626319391777701</v>
+      </c>
+      <c r="H59">
+        <v>0.02950446378256026</v>
+      </c>
+      <c r="I59">
+        <v>0.05645019302389437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1892884948542495</v>
+        <v>-0.1870036909433672</v>
       </c>
       <c r="C60">
-        <v>-0.08496347607827839</v>
+        <v>0.04310718310806759</v>
       </c>
       <c r="D60">
-        <v>0.005556393750311032</v>
+        <v>-0.04726154018052729</v>
       </c>
       <c r="E60">
-        <v>-0.1916508164376236</v>
+        <v>-0.007468777111866</v>
       </c>
       <c r="F60">
-        <v>-0.03627126690997107</v>
+        <v>-0.2055218436124272</v>
       </c>
       <c r="G60">
-        <v>0.03439971974763097</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.05662558921434256</v>
+      </c>
+      <c r="H60">
+        <v>0.2819455679793639</v>
+      </c>
+      <c r="I60">
+        <v>-0.08575918201499973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04376051366614695</v>
+        <v>-0.03689973683207805</v>
       </c>
       <c r="C61">
-        <v>0.01372167100590076</v>
+        <v>-0.02907692732660236</v>
       </c>
       <c r="D61">
-        <v>0.0005673459904903811</v>
+        <v>-0.0002714932082466684</v>
       </c>
       <c r="E61">
-        <v>-0.03781675313395742</v>
+        <v>-0.00885214538576596</v>
       </c>
       <c r="F61">
-        <v>-0.002212017915384498</v>
+        <v>-0.0379453084223106</v>
       </c>
       <c r="G61">
-        <v>0.0103249913771465</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01062313411285273</v>
+      </c>
+      <c r="H61">
+        <v>0.00639035240307336</v>
+      </c>
+      <c r="I61">
+        <v>-0.03295707008667915</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04512500030477609</v>
+        <v>-0.03114403141299675</v>
       </c>
       <c r="C63">
-        <v>0.01552313404118573</v>
+        <v>-0.02054164641805479</v>
       </c>
       <c r="D63">
-        <v>0.0180844718694531</v>
+        <v>-0.002319286236029454</v>
       </c>
       <c r="E63">
-        <v>-0.04101994214449083</v>
+        <v>-0.01551384813807326</v>
       </c>
       <c r="F63">
-        <v>-0.02034233777618281</v>
+        <v>-0.0294575827437343</v>
       </c>
       <c r="G63">
-        <v>-0.006686657769386273</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.009371640158578927</v>
+      </c>
+      <c r="H63">
+        <v>-0.04910964480466151</v>
+      </c>
+      <c r="I63">
+        <v>0.04013021650377289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07172425545651309</v>
+        <v>-0.05749536433975126</v>
       </c>
       <c r="C64">
-        <v>0.05240076207513279</v>
+        <v>-0.04550168929736555</v>
       </c>
       <c r="D64">
-        <v>0.04923877996353147</v>
+        <v>0.01319179413407313</v>
       </c>
       <c r="E64">
-        <v>-0.05049733365812978</v>
+        <v>-0.04253790315390943</v>
       </c>
       <c r="F64">
-        <v>-0.008068788071549276</v>
+        <v>-0.05001026482874302</v>
       </c>
       <c r="G64">
-        <v>0.07493785040510044</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05696151712125598</v>
+      </c>
+      <c r="H64">
+        <v>0.008952408375957991</v>
+      </c>
+      <c r="I64">
+        <v>0.04197341554192648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01997508101181501</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01362094787103117</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.006045085482496329</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006625480128774441</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.0005903273858274877</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02097375066921536</v>
+      </c>
+      <c r="H65">
+        <v>0.003685371681190305</v>
+      </c>
+      <c r="I65">
+        <v>-0.01403567802887041</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08677621946304113</v>
+        <v>-0.06636789674698215</v>
       </c>
       <c r="C66">
-        <v>0.03911837215837143</v>
+        <v>-0.05555522753186802</v>
       </c>
       <c r="D66">
-        <v>0.03639959100696861</v>
+        <v>-0.01505660629878191</v>
       </c>
       <c r="E66">
-        <v>-0.07814541492835216</v>
+        <v>-0.04900930157494315</v>
       </c>
       <c r="F66">
-        <v>-0.02384407777501757</v>
+        <v>-0.06867057364898226</v>
       </c>
       <c r="G66">
-        <v>0.0234971816600426</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01366816767998678</v>
+      </c>
+      <c r="H66">
+        <v>-0.0001935179945125695</v>
+      </c>
+      <c r="I66">
+        <v>-0.01717892155199002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05851263561508709</v>
+        <v>-0.04701540611637327</v>
       </c>
       <c r="C67">
-        <v>-0.008924593900530147</v>
+        <v>0.003701890844273253</v>
       </c>
       <c r="D67">
-        <v>0.01354449845850823</v>
+        <v>-0.001794507305208844</v>
       </c>
       <c r="E67">
-        <v>-0.01847227043599404</v>
+        <v>-0.009870959537061453</v>
       </c>
       <c r="F67">
-        <v>0.0155256812953159</v>
+        <v>-0.03656264952267543</v>
       </c>
       <c r="G67">
-        <v>0.01884159315943866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03446725728266655</v>
+      </c>
+      <c r="H67">
+        <v>0.00428454825673395</v>
+      </c>
+      <c r="I67">
+        <v>-0.03447786283896294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03668529078592683</v>
+        <v>-0.06134275879289696</v>
       </c>
       <c r="C68">
-        <v>-0.2456211022347501</v>
+        <v>0.2339703315306523</v>
       </c>
       <c r="D68">
-        <v>-0.01709053674792878</v>
+        <v>-0.01087571823182144</v>
       </c>
       <c r="E68">
-        <v>-0.05693752075097912</v>
+        <v>0.03753286671631223</v>
       </c>
       <c r="F68">
-        <v>-0.03370358438394638</v>
+        <v>-0.05743463203209498</v>
       </c>
       <c r="G68">
-        <v>-0.006615175613180512</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.003071615443313095</v>
+      </c>
+      <c r="H68">
+        <v>0.02509238568995476</v>
+      </c>
+      <c r="I68">
+        <v>0.13836872229812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07162252145564682</v>
+        <v>-0.07138586536523389</v>
       </c>
       <c r="C69">
-        <v>0.01779302758663728</v>
+        <v>-0.02060722736541385</v>
       </c>
       <c r="D69">
-        <v>0.02463529478935658</v>
+        <v>-0.006594501429550008</v>
       </c>
       <c r="E69">
-        <v>0.01395478208117852</v>
+        <v>-0.03267893266756942</v>
       </c>
       <c r="F69">
-        <v>-0.02192369021235</v>
+        <v>0.0005682583493535851</v>
       </c>
       <c r="G69">
-        <v>-0.01734818793566666</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02202645281398424</v>
+      </c>
+      <c r="H69">
+        <v>-0.02895322312350279</v>
+      </c>
+      <c r="I69">
+        <v>0.002992006263073988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.02589027209870715</v>
+        <v>-0.05910474848917122</v>
       </c>
       <c r="C71">
-        <v>-0.2810130308992276</v>
+        <v>0.2497141836468597</v>
       </c>
       <c r="D71">
-        <v>-0.03381434932469052</v>
+        <v>-0.01464994306464027</v>
       </c>
       <c r="E71">
-        <v>-0.0881092954986223</v>
+        <v>0.06359083613514166</v>
       </c>
       <c r="F71">
-        <v>-0.03588163201411284</v>
+        <v>-0.07710666678464949</v>
       </c>
       <c r="G71">
-        <v>0.001135705489639637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01748291856129215</v>
+      </c>
+      <c r="H71">
+        <v>0.03543529206430494</v>
+      </c>
+      <c r="I71">
+        <v>0.1164851166201054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1234794144050872</v>
+        <v>-0.1224098069853632</v>
       </c>
       <c r="C72">
-        <v>-0.0009586684439885891</v>
+        <v>-0.03333014221463512</v>
       </c>
       <c r="D72">
-        <v>0.04127988855948985</v>
+        <v>-0.007106722895415014</v>
       </c>
       <c r="E72">
-        <v>-0.08822529669220143</v>
+        <v>-0.0650672608821815</v>
       </c>
       <c r="F72">
-        <v>0.02308814581943283</v>
+        <v>-0.08871492678922376</v>
       </c>
       <c r="G72">
-        <v>-0.01753373804758892</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04242144392756003</v>
+      </c>
+      <c r="H72">
+        <v>0.01939099900942777</v>
+      </c>
+      <c r="I72">
+        <v>-0.1070401482894946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2883119197797303</v>
+        <v>-0.2683224666894916</v>
       </c>
       <c r="C73">
-        <v>-0.1645223099620582</v>
+        <v>0.06755676584524044</v>
       </c>
       <c r="D73">
-        <v>-0.05867409277816204</v>
+        <v>-0.08643497435244117</v>
       </c>
       <c r="E73">
-        <v>-0.3360423388452235</v>
+        <v>0.04179692867192813</v>
       </c>
       <c r="F73">
-        <v>0.01363245396632109</v>
+        <v>-0.3053988145461481</v>
       </c>
       <c r="G73">
-        <v>0.06092667816673822</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1515692939546155</v>
+      </c>
+      <c r="H73">
+        <v>0.481313225225717</v>
+      </c>
+      <c r="I73">
+        <v>-0.2755440046286773</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1599538961933248</v>
+        <v>-0.1491065199952726</v>
       </c>
       <c r="C74">
-        <v>0.01158488383253933</v>
+        <v>-0.03106034433075433</v>
       </c>
       <c r="D74">
-        <v>0.04037245598807862</v>
+        <v>-0.01292581878759317</v>
       </c>
       <c r="E74">
-        <v>0.03632392862712496</v>
+        <v>-0.05248072966941049</v>
       </c>
       <c r="F74">
-        <v>0.008537751040131851</v>
+        <v>0.05956070288617343</v>
       </c>
       <c r="G74">
-        <v>-0.08131821627254625</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.02280699888919743</v>
+      </c>
+      <c r="H74">
+        <v>0.0272182600677374</v>
+      </c>
+      <c r="I74">
+        <v>0.03973813265592069</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2345005275422075</v>
+        <v>-0.2413222800235377</v>
       </c>
       <c r="C75">
-        <v>0.008618561241932958</v>
+        <v>-0.02971268749268144</v>
       </c>
       <c r="D75">
-        <v>0.07527084301998951</v>
+        <v>-0.02794382785356384</v>
       </c>
       <c r="E75">
-        <v>0.1296447023999881</v>
+        <v>-0.1135979167206633</v>
       </c>
       <c r="F75">
-        <v>-0.01596112747864576</v>
+        <v>0.1445331015149387</v>
       </c>
       <c r="G75">
-        <v>-0.04990807915947813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.003803943110668831</v>
+      </c>
+      <c r="H75">
+        <v>0.01894707945704211</v>
+      </c>
+      <c r="I75">
+        <v>0.08752976991971302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2493910079594818</v>
+        <v>-0.2636450326523858</v>
       </c>
       <c r="C76">
-        <v>-0.01350538686395298</v>
+        <v>-0.01559552725101043</v>
       </c>
       <c r="D76">
-        <v>0.1087962139676247</v>
+        <v>0.01182896664382727</v>
       </c>
       <c r="E76">
-        <v>0.1273800520776715</v>
+        <v>-0.1386245979703287</v>
       </c>
       <c r="F76">
-        <v>0.03160487767465109</v>
+        <v>0.1820950714558202</v>
       </c>
       <c r="G76">
-        <v>-0.08500123976292694</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.06016069390184028</v>
+      </c>
+      <c r="H76">
+        <v>0.04271992125285394</v>
+      </c>
+      <c r="I76">
+        <v>0.05851518743699614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1327334218163742</v>
+        <v>-0.1232705807233022</v>
       </c>
       <c r="C77">
-        <v>0.06684009104544451</v>
+        <v>-0.07471746056230813</v>
       </c>
       <c r="D77">
-        <v>-0.03420254210401342</v>
+        <v>-0.0095018213876241</v>
       </c>
       <c r="E77">
-        <v>-0.1453203795384485</v>
+        <v>0.02924560240052764</v>
       </c>
       <c r="F77">
-        <v>0.01143415913847167</v>
+        <v>-0.1580363438810406</v>
       </c>
       <c r="G77">
-        <v>0.05430178669260442</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01093125096599387</v>
+      </c>
+      <c r="H77">
+        <v>-0.2099214217270123</v>
+      </c>
+      <c r="I77">
+        <v>0.275475168265078</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08550202771155696</v>
+        <v>-0.07391662180397468</v>
       </c>
       <c r="C78">
-        <v>0.05575733288782112</v>
+        <v>-0.07635150594331662</v>
       </c>
       <c r="D78">
-        <v>-0.009867480587959512</v>
+        <v>0.002960901842459724</v>
       </c>
       <c r="E78">
-        <v>-0.05397250666153073</v>
+        <v>-0.01553743689959435</v>
       </c>
       <c r="F78">
-        <v>-0.01476770139856752</v>
+        <v>-0.07675892536735782</v>
       </c>
       <c r="G78">
-        <v>-0.0003983038966139801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.009338347517577582</v>
+      </c>
+      <c r="H78">
+        <v>-0.02094028405461009</v>
+      </c>
+      <c r="I78">
+        <v>0.03369584245452936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05464171612523119</v>
+        <v>-0.1383450545541899</v>
       </c>
       <c r="C80">
-        <v>0.02465954915096896</v>
+        <v>0.007475089378238936</v>
       </c>
       <c r="D80">
-        <v>-0.099543322252739</v>
+        <v>0.9746688717436555</v>
       </c>
       <c r="E80">
-        <v>0.0616571218834097</v>
+        <v>0.06051404631970908</v>
       </c>
       <c r="F80">
-        <v>0.8206156842762951</v>
+        <v>-0.04571384012384003</v>
       </c>
       <c r="G80">
-        <v>0.4987556897641128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04867567088442747</v>
+      </c>
+      <c r="H80">
+        <v>0.04841721217864173</v>
+      </c>
+      <c r="I80">
+        <v>-0.05603413161068792</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1644177791161556</v>
+        <v>-0.1780743622858947</v>
       </c>
       <c r="C81">
-        <v>-0.007433550714234762</v>
+        <v>-0.006739519444589266</v>
       </c>
       <c r="D81">
-        <v>0.05681849672450977</v>
+        <v>-0.006102913734647023</v>
       </c>
       <c r="E81">
-        <v>0.1643961847930171</v>
+        <v>-0.08590020850440672</v>
       </c>
       <c r="F81">
-        <v>0.01467004250986082</v>
+        <v>0.1573654061414992</v>
       </c>
       <c r="G81">
-        <v>-0.08995844559564294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02926476442300026</v>
+      </c>
+      <c r="H81">
+        <v>0.005793854113091328</v>
+      </c>
+      <c r="I81">
+        <v>0.0522706410726695</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09118896082580064</v>
+        <v>-0.06916159581649113</v>
       </c>
       <c r="C83">
-        <v>0.07180793152425273</v>
+        <v>-0.05537919805699387</v>
       </c>
       <c r="D83">
-        <v>-0.05693471141039717</v>
+        <v>-0.01613678895877796</v>
       </c>
       <c r="E83">
-        <v>-0.01558736691821785</v>
+        <v>0.03370386168748039</v>
       </c>
       <c r="F83">
-        <v>-0.06256672457876737</v>
+        <v>-0.04603616676491597</v>
       </c>
       <c r="G83">
-        <v>0.03017017838632285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05834396520323407</v>
+      </c>
+      <c r="H83">
+        <v>-0.03706462041280476</v>
+      </c>
+      <c r="I83">
+        <v>0.03657211726643048</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2376076219556315</v>
+        <v>-0.2509126914199248</v>
       </c>
       <c r="C85">
-        <v>0.06094159518908518</v>
+        <v>-0.05790113181737659</v>
       </c>
       <c r="D85">
-        <v>0.06871724961088126</v>
+        <v>-0.008597946134585454</v>
       </c>
       <c r="E85">
-        <v>0.1597628393675015</v>
+        <v>-0.1094341866934246</v>
       </c>
       <c r="F85">
-        <v>0.04178688909421949</v>
+        <v>0.1876190625303399</v>
       </c>
       <c r="G85">
-        <v>-0.07581108473963485</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02649465890848356</v>
+      </c>
+      <c r="H85">
+        <v>-0.02339227969296284</v>
+      </c>
+      <c r="I85">
+        <v>0.06680839441258092</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04047864066002591</v>
+        <v>-0.02356791221214002</v>
       </c>
       <c r="C86">
-        <v>0.04984924449351778</v>
+        <v>-0.053493969826024</v>
       </c>
       <c r="D86">
-        <v>0.006899198872722018</v>
+        <v>-0.002793092210342266</v>
       </c>
       <c r="E86">
-        <v>-0.06836182877158535</v>
+        <v>-0.01843132037289992</v>
       </c>
       <c r="F86">
-        <v>0.001829127602704955</v>
+        <v>-0.0796104031642587</v>
       </c>
       <c r="G86">
-        <v>-0.004008725499617506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.003921163349844207</v>
+      </c>
+      <c r="H86">
+        <v>-0.06516268383279661</v>
+      </c>
+      <c r="I86">
+        <v>0.01807967080515859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02729030462308983</v>
+        <v>-0.03127165052786357</v>
       </c>
       <c r="C87">
-        <v>-0.05420282938203541</v>
+        <v>0.01007585687420435</v>
       </c>
       <c r="D87">
-        <v>-0.003415525428534916</v>
+        <v>-0.001206180368736941</v>
       </c>
       <c r="E87">
-        <v>-0.09431035950796546</v>
+        <v>-0.002293318681252207</v>
       </c>
       <c r="F87">
-        <v>0.009650537840150495</v>
+        <v>-0.09958505685636293</v>
       </c>
       <c r="G87">
-        <v>-0.01491401030993175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02188369392567208</v>
+      </c>
+      <c r="H87">
+        <v>-0.01173402271180553</v>
+      </c>
+      <c r="I87">
+        <v>-0.004169147925584364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03152015046819887</v>
+        <v>-0.0310489645459793</v>
       </c>
       <c r="C88">
-        <v>0.02405380488698978</v>
+        <v>-0.01380931901163376</v>
       </c>
       <c r="D88">
-        <v>-0.00021771006595608</v>
+        <v>0.007919788277783689</v>
       </c>
       <c r="E88">
-        <v>0.01165812896761851</v>
+        <v>-0.008184042910523541</v>
       </c>
       <c r="F88">
-        <v>-0.003397837207850594</v>
+        <v>0.009935716219515492</v>
       </c>
       <c r="G88">
-        <v>0.01230980310420278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04770067657461265</v>
+      </c>
+      <c r="H88">
+        <v>-0.03297401370870541</v>
+      </c>
+      <c r="I88">
+        <v>-0.01964540886971958</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.0340154081326574</v>
+        <v>-0.09634127445427398</v>
       </c>
       <c r="C89">
-        <v>-0.3831956673705401</v>
+        <v>0.3832809127555497</v>
       </c>
       <c r="D89">
-        <v>-0.09660174548437642</v>
+        <v>-0.03548644548711304</v>
       </c>
       <c r="E89">
-        <v>-0.003035457544859446</v>
+        <v>0.08679281906034293</v>
       </c>
       <c r="F89">
-        <v>-0.03796871435915347</v>
+        <v>-0.03420056585671421</v>
       </c>
       <c r="G89">
-        <v>0.005651725023941418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03932070637856744</v>
+      </c>
+      <c r="H89">
+        <v>-0.04752781299806172</v>
+      </c>
+      <c r="I89">
+        <v>0.2321367373579022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02716315358641556</v>
+        <v>-0.06599855818792508</v>
       </c>
       <c r="C90">
-        <v>-0.3012576095653086</v>
+        <v>0.3234735161323888</v>
       </c>
       <c r="D90">
-        <v>-0.05689112314122553</v>
+        <v>-0.01101256388249261</v>
       </c>
       <c r="E90">
-        <v>-0.05396658403535563</v>
+        <v>0.06996791059706732</v>
       </c>
       <c r="F90">
-        <v>-0.04588913956128818</v>
+        <v>-0.03422003763721298</v>
       </c>
       <c r="G90">
-        <v>0.01664225354407829</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02534125557092219</v>
+      </c>
+      <c r="H90">
+        <v>0.00265778968977035</v>
+      </c>
+      <c r="I90">
+        <v>0.1986247416848238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2798297599663767</v>
+        <v>-0.2896094126648947</v>
       </c>
       <c r="C91">
-        <v>0.0416045773354906</v>
+        <v>-0.04965049258036961</v>
       </c>
       <c r="D91">
-        <v>0.08481727469905842</v>
+        <v>-0.01657473836609241</v>
       </c>
       <c r="E91">
-        <v>0.2726215373371361</v>
+        <v>-0.1036007687315541</v>
       </c>
       <c r="F91">
-        <v>0.04374916421579596</v>
+        <v>0.2754380500616788</v>
       </c>
       <c r="G91">
-        <v>-0.05133731904136164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02779974677121172</v>
+      </c>
+      <c r="H91">
+        <v>0.005251234283916167</v>
+      </c>
+      <c r="I91">
+        <v>0.1025662563946811</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06614299825311594</v>
+        <v>-0.1277116010980884</v>
       </c>
       <c r="C92">
-        <v>-0.4077080459397158</v>
+        <v>0.4176146493377772</v>
       </c>
       <c r="D92">
-        <v>-0.1700694950951769</v>
+        <v>0.008827024016192385</v>
       </c>
       <c r="E92">
-        <v>0.09686028053868351</v>
+        <v>0.114073784125232</v>
       </c>
       <c r="F92">
-        <v>0.09004108841897659</v>
+        <v>0.1117791155434725</v>
       </c>
       <c r="G92">
-        <v>0.009240165914443583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.06454933648600381</v>
+      </c>
+      <c r="H92">
+        <v>-0.4535471046415515</v>
+      </c>
+      <c r="I92">
+        <v>-0.5520091509845209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.0179248382529461</v>
+        <v>-0.07699064896654352</v>
       </c>
       <c r="C93">
-        <v>-0.3693610077485929</v>
+        <v>0.390585159968063</v>
       </c>
       <c r="D93">
-        <v>-0.08496600865867156</v>
+        <v>-0.02775594470438489</v>
       </c>
       <c r="E93">
-        <v>0.02209092557934093</v>
+        <v>0.1107750558544388</v>
       </c>
       <c r="F93">
-        <v>0.01198712005417154</v>
+        <v>-0.00467310753010837</v>
       </c>
       <c r="G93">
-        <v>0.0288794446864137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03789048609378205</v>
+      </c>
+      <c r="H93">
+        <v>0.02765150890183639</v>
+      </c>
+      <c r="I93">
+        <v>0.1314600508012691</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2796619979355275</v>
+        <v>-0.3108704830238037</v>
       </c>
       <c r="C94">
-        <v>-0.09266289473047856</v>
+        <v>0.03905635205240938</v>
       </c>
       <c r="D94">
-        <v>0.05508661981581352</v>
+        <v>-0.0405564460100904</v>
       </c>
       <c r="E94">
-        <v>0.3586353600395198</v>
+        <v>-0.1331282999632251</v>
       </c>
       <c r="F94">
-        <v>0.1720388006234479</v>
+        <v>0.3302361158236892</v>
       </c>
       <c r="G94">
-        <v>-0.347989537445272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2097715752324955</v>
+      </c>
+      <c r="H94">
+        <v>-0.1110756164644812</v>
+      </c>
+      <c r="I94">
+        <v>-0.02095007407469056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1856729452621281</v>
+        <v>-0.1385490394581558</v>
       </c>
       <c r="C95">
-        <v>0.001678098044434194</v>
+        <v>-0.04363151238564326</v>
       </c>
       <c r="D95">
-        <v>0.01650833511032259</v>
+        <v>-0.09788707550729565</v>
       </c>
       <c r="E95">
-        <v>0.3589199065061451</v>
+        <v>-0.03935289535673674</v>
       </c>
       <c r="F95">
-        <v>-0.4673926689951343</v>
+        <v>0.08669998117459896</v>
       </c>
       <c r="G95">
-        <v>0.7211982304230482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.9015825692959053</v>
+      </c>
+      <c r="H95">
+        <v>0.125055948104557</v>
+      </c>
+      <c r="I95">
+        <v>-0.1696138229004247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.219707946274402</v>
+        <v>-0.2083515893662488</v>
       </c>
       <c r="C98">
-        <v>-0.1006878323122355</v>
+        <v>0.0535781722940622</v>
       </c>
       <c r="D98">
-        <v>-0.03199583450295198</v>
+        <v>-0.06087129048297824</v>
       </c>
       <c r="E98">
-        <v>-0.0957611686740731</v>
+        <v>0.03320405015483486</v>
       </c>
       <c r="F98">
-        <v>-0.04924691574377618</v>
+        <v>-0.1608024936268811</v>
       </c>
       <c r="G98">
-        <v>0.01714631474992686</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06625589094078811</v>
+      </c>
+      <c r="H98">
+        <v>0.3199256196956387</v>
+      </c>
+      <c r="I98">
+        <v>-0.1613899856768127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0251043505504594</v>
+        <v>-0.01774502191958494</v>
       </c>
       <c r="C101">
-        <v>0.0241895762342172</v>
+        <v>-0.02683843691404902</v>
       </c>
       <c r="D101">
-        <v>0.03052219351761136</v>
+        <v>0.003651714079397176</v>
       </c>
       <c r="E101">
-        <v>-0.03428249508189082</v>
+        <v>-0.03501015143645213</v>
       </c>
       <c r="F101">
-        <v>-0.01729221655378694</v>
+        <v>-0.06772637066589855</v>
       </c>
       <c r="G101">
-        <v>0.001967668215583728</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01117584347108071</v>
+      </c>
+      <c r="H101">
+        <v>-0.1101102847840011</v>
+      </c>
+      <c r="I101">
+        <v>-0.07916328539431518</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1120571417547486</v>
+        <v>-0.1214508036383512</v>
       </c>
       <c r="C102">
-        <v>0.0256903131113345</v>
+        <v>-0.02469405665407406</v>
       </c>
       <c r="D102">
-        <v>0.04181444802857726</v>
+        <v>0.00302514966758818</v>
       </c>
       <c r="E102">
-        <v>0.09517252586871711</v>
+        <v>-0.05663162618790579</v>
       </c>
       <c r="F102">
-        <v>0.02078443879110236</v>
+        <v>0.104578419556622</v>
       </c>
       <c r="G102">
-        <v>-0.0001940203524551425</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.009756786170306639</v>
+      </c>
+      <c r="H102">
+        <v>0.01125031485880211</v>
+      </c>
+      <c r="I102">
+        <v>0.06537416213464875</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02105162894103744</v>
+        <v>-0.02989882443249317</v>
       </c>
       <c r="C103">
-        <v>0.004257723984077262</v>
+        <v>-0.007137221152711549</v>
       </c>
       <c r="D103">
-        <v>0.009571039636389325</v>
+        <v>0.008433206814305094</v>
       </c>
       <c r="E103">
-        <v>0.03279699306261665</v>
+        <v>-0.02074803589372881</v>
       </c>
       <c r="F103">
-        <v>-0.0006405828805406264</v>
+        <v>0.02577903067805125</v>
       </c>
       <c r="G103">
-        <v>-0.009790917926211144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01013080382588117</v>
+      </c>
+      <c r="H103">
+        <v>-0.0123949112800449</v>
+      </c>
+      <c r="I103">
+        <v>0.02269443756491589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
